--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>S.N</t>
   </si>
@@ -22,43 +22,46 @@
     <t>Anish Ghimire</t>
   </si>
   <si>
+    <t>Dipak Raj Baddu</t>
+  </si>
+  <si>
     <t>Saroj Kafle</t>
   </si>
   <si>
+    <t>Parshad Ghimire</t>
+  </si>
+  <si>
     <t>Krishna Adhikari</t>
   </si>
   <si>
+    <t>Aayusha Rana</t>
+  </si>
+  <si>
     <t>Amir KC</t>
   </si>
   <si>
+    <t>Desdemona Dhakal</t>
+  </si>
+  <si>
     <t>Puran Ban</t>
   </si>
   <si>
+    <t>Saman Pasa Nakarmi</t>
+  </si>
+  <si>
     <t>Pradip Chapagain</t>
   </si>
   <si>
-    <t>Dipak Raj Baddu</t>
-  </si>
-  <si>
-    <t>Parshad Ghimire</t>
-  </si>
-  <si>
-    <t>Aayusha Rana</t>
-  </si>
-  <si>
-    <t>Desdemona Dhakal</t>
-  </si>
-  <si>
-    <t>Saman Pasa Nakarmi</t>
-  </si>
-  <si>
-    <t>2020-01-25</t>
+    <t>2020-07-25</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
     <t>0</t>
+  </si>
+  <si>
+    <t>2020-07-26</t>
   </si>
 </sst>
 </file>
@@ -98,13 +101,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -114,92 +117,128 @@
       <c r="C1" s="0" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="2:3">
+      <c r="D1" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="2:4">
       <c r="B2" s="0" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="2:3">
+      <c r="D2" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
       <c r="B3" s="0" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="2:3">
+      <c r="D3" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
       <c r="B4" s="0" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="2:3">
+      <c r="D4" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
       <c r="B5" s="0" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="2:3">
+      <c r="D5" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
       <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="2:3">
+      <c r="D6" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
       <c r="B7" s="0" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3">
+        <v>14</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
       <c r="B8" s="0" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
+        <v>15</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
       <c r="B9" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="2:3">
+      <c r="D9" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
       <c r="B10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3">
+        <v>15</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
       <c r="B11" s="0" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3">
+        <v>15</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
       <c r="B12" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="0" t="s">
         <v>15</v>
       </c>
     </row>
